--- a/Test/MC_Ssf/T1/Sensors_data_1000001.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000001.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.5633436492133082</v>
+        <v>-0.8490725676671544</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05076346309460716</v>
+        <v>0.06004139083256337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.350612945541055</v>
+        <v>0.4097678341856599</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7213827505477173</v>
+        <v>0.6801069278621874</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01227767703358858</v>
+        <v>0.01409655659407824</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01957240050743155</v>
+        <v>0.04165122918632266</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8034374181478366</v>
+        <v>0.41303135260359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008330710881133123</v>
+        <v>0.02487689188691559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3348491865939601</v>
+        <v>0.3082721403424657</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9834272117742094</v>
+        <v>0.9339060289751824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007028075523948605</v>
+        <v>0.002802868254342461</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004634133709836008</v>
+        <v>0.1277176441705688</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
